--- a/Report/Gauntt chart.xlsx
+++ b/Report/Gauntt chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Projet\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1455E1-28C2-4041-9BA7-7439ADDC53C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BFE7CC-D536-4DBD-BC9B-DFD9A61CD79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Project Planner</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Plan</t>
+  </si>
+  <si>
+    <t>Given to the assignment office</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,6 +864,99 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -909,113 +1005,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1458,13 +1464,13 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1472,66 +1478,66 @@
         <v>2</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="48"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="79"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="50"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="81"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="51" t="s">
+      <c r="AA2" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="53"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="84"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="38" t="s">
+      <c r="AI2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="76" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1558,12 +1564,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -2356,78 +2362,78 @@
   <dimension ref="A1:BL47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="BN20" sqref="BN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="25"/>
-    <col min="2" max="2" width="23.625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="25" style="33" customWidth="1"/>
     <col min="3" max="4" width="11" style="25"/>
     <col min="5" max="5" width="11" style="27"/>
     <col min="6" max="6" width="11" style="25"/>
     <col min="7" max="9" width="1.875" style="26" customWidth="1"/>
-    <col min="10" max="10" width="1.875" style="82" customWidth="1"/>
+    <col min="10" max="10" width="1.875" style="63" customWidth="1"/>
     <col min="11" max="16" width="1.875" style="26" customWidth="1"/>
-    <col min="17" max="17" width="1.875" style="82" customWidth="1"/>
+    <col min="17" max="17" width="1.875" style="63" customWidth="1"/>
     <col min="18" max="23" width="1.875" style="26" customWidth="1"/>
-    <col min="24" max="24" width="1.875" style="82" customWidth="1"/>
+    <col min="24" max="24" width="1.875" style="63" customWidth="1"/>
     <col min="25" max="30" width="1.875" style="26" customWidth="1"/>
-    <col min="31" max="31" width="1.875" style="82" customWidth="1"/>
+    <col min="31" max="31" width="1.875" style="63" customWidth="1"/>
     <col min="32" max="37" width="1.875" style="26" customWidth="1"/>
-    <col min="38" max="38" width="1.875" style="82" customWidth="1"/>
+    <col min="38" max="38" width="1.875" style="63" customWidth="1"/>
     <col min="39" max="44" width="1.875" style="26" customWidth="1"/>
-    <col min="45" max="45" width="1.875" style="82" customWidth="1"/>
+    <col min="45" max="45" width="1.875" style="63" customWidth="1"/>
     <col min="46" max="51" width="1.875" style="26" customWidth="1"/>
-    <col min="52" max="52" width="1.875" style="82" customWidth="1"/>
+    <col min="52" max="52" width="1.875" style="63" customWidth="1"/>
     <col min="53" max="58" width="1.875" style="26" customWidth="1"/>
-    <col min="59" max="59" width="1.875" style="56" customWidth="1"/>
+    <col min="59" max="59" width="1.875" style="40" customWidth="1"/>
     <col min="60" max="64" width="1.875" style="25" customWidth="1"/>
     <col min="65" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" s="23" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
     </row>
     <row r="2" spans="1:64" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -2442,254 +2448,254 @@
       <c r="D2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="88">
         <v>43741</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="88">
         <v>43742</v>
       </c>
-      <c r="I2" s="71">
+      <c r="I2" s="88">
         <v>43743</v>
       </c>
-      <c r="J2" s="77">
+      <c r="J2" s="89">
         <v>43744</v>
       </c>
-      <c r="K2" s="71">
+      <c r="K2" s="88">
         <v>43745</v>
       </c>
-      <c r="L2" s="71">
+      <c r="L2" s="88">
         <v>43746</v>
       </c>
-      <c r="M2" s="71">
+      <c r="M2" s="88">
         <v>43747</v>
       </c>
-      <c r="N2" s="71">
+      <c r="N2" s="88">
         <v>43748</v>
       </c>
-      <c r="O2" s="71">
+      <c r="O2" s="88">
         <v>43749</v>
       </c>
-      <c r="P2" s="71">
+      <c r="P2" s="88">
         <v>43750</v>
       </c>
-      <c r="Q2" s="77">
+      <c r="Q2" s="89">
         <v>43751</v>
       </c>
-      <c r="R2" s="71">
+      <c r="R2" s="88">
         <v>43752</v>
       </c>
-      <c r="S2" s="71">
+      <c r="S2" s="88">
         <v>43753</v>
       </c>
-      <c r="T2" s="71">
+      <c r="T2" s="88">
         <v>43754</v>
       </c>
-      <c r="U2" s="71">
+      <c r="U2" s="88">
         <v>43755</v>
       </c>
-      <c r="V2" s="71">
+      <c r="V2" s="88">
         <v>43756</v>
       </c>
-      <c r="W2" s="71">
+      <c r="W2" s="88">
         <v>43757</v>
       </c>
-      <c r="X2" s="77">
+      <c r="X2" s="89">
         <v>43758</v>
       </c>
-      <c r="Y2" s="71">
+      <c r="Y2" s="88">
         <v>43759</v>
       </c>
-      <c r="Z2" s="71">
+      <c r="Z2" s="88">
         <v>43760</v>
       </c>
-      <c r="AA2" s="71">
+      <c r="AA2" s="88">
         <v>43761</v>
       </c>
-      <c r="AB2" s="71">
+      <c r="AB2" s="88">
         <v>43762</v>
       </c>
-      <c r="AC2" s="71">
+      <c r="AC2" s="88">
         <v>43763</v>
       </c>
-      <c r="AD2" s="71">
+      <c r="AD2" s="88">
         <v>43764</v>
       </c>
-      <c r="AE2" s="86">
+      <c r="AE2" s="90">
         <v>43765</v>
       </c>
-      <c r="AF2" s="71">
+      <c r="AF2" s="88">
         <v>43766</v>
       </c>
-      <c r="AG2" s="71">
+      <c r="AG2" s="88">
         <v>43767</v>
       </c>
-      <c r="AH2" s="71">
+      <c r="AH2" s="88">
         <v>43768</v>
       </c>
-      <c r="AI2" s="71">
+      <c r="AI2" s="88">
         <v>43769</v>
       </c>
-      <c r="AJ2" s="71">
+      <c r="AJ2" s="88">
         <v>43770</v>
       </c>
-      <c r="AK2" s="71">
+      <c r="AK2" s="88">
         <v>43771</v>
       </c>
-      <c r="AL2" s="77">
+      <c r="AL2" s="89">
         <v>43772</v>
       </c>
-      <c r="AM2" s="71">
+      <c r="AM2" s="88">
         <v>43773</v>
       </c>
-      <c r="AN2" s="71">
+      <c r="AN2" s="88">
         <v>43774</v>
       </c>
-      <c r="AO2" s="71">
+      <c r="AO2" s="88">
         <v>43775</v>
       </c>
-      <c r="AP2" s="71">
+      <c r="AP2" s="88">
         <v>43776</v>
       </c>
-      <c r="AQ2" s="71">
+      <c r="AQ2" s="88">
         <v>43777</v>
       </c>
-      <c r="AR2" s="71">
+      <c r="AR2" s="88">
         <v>43778</v>
       </c>
-      <c r="AS2" s="77">
+      <c r="AS2" s="89">
         <v>43779</v>
       </c>
-      <c r="AT2" s="71">
+      <c r="AT2" s="88">
         <v>43780</v>
       </c>
-      <c r="AU2" s="71">
+      <c r="AU2" s="88">
         <v>43781</v>
       </c>
-      <c r="AV2" s="71">
+      <c r="AV2" s="88">
         <v>43782</v>
       </c>
-      <c r="AW2" s="71">
+      <c r="AW2" s="88">
         <v>43783</v>
       </c>
-      <c r="AX2" s="71">
+      <c r="AX2" s="88">
         <v>43784</v>
       </c>
-      <c r="AY2" s="71">
+      <c r="AY2" s="88">
         <v>43785</v>
       </c>
-      <c r="AZ2" s="77">
+      <c r="AZ2" s="89">
         <v>43786</v>
       </c>
-      <c r="BA2" s="71">
+      <c r="BA2" s="88">
         <v>43787</v>
       </c>
-      <c r="BB2" s="71">
+      <c r="BB2" s="88">
         <v>43788</v>
       </c>
-      <c r="BC2" s="71">
+      <c r="BC2" s="88">
         <v>43789</v>
       </c>
-      <c r="BD2" s="71">
+      <c r="BD2" s="88">
         <v>43790</v>
       </c>
-      <c r="BE2" s="71">
+      <c r="BE2" s="88">
         <v>43791</v>
       </c>
-      <c r="BF2" s="71">
+      <c r="BF2" s="88">
         <v>43792</v>
       </c>
-      <c r="BG2" s="77">
+      <c r="BG2" s="89">
         <v>43793</v>
       </c>
-      <c r="BH2" s="71">
+      <c r="BH2" s="88">
         <v>43794</v>
       </c>
-      <c r="BI2" s="71">
+      <c r="BI2" s="88">
         <v>43795</v>
       </c>
-      <c r="BJ2" s="71">
+      <c r="BJ2" s="88">
         <v>43796</v>
       </c>
-      <c r="BK2" s="71">
+      <c r="BK2" s="88">
         <v>43797</v>
       </c>
-      <c r="BL2" s="71">
+      <c r="BL2" s="88">
         <v>43798</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="84"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="57"/>
-      <c r="BL3" s="57"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="41"/>
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="41"/>
+      <c r="BB3" s="41"/>
+      <c r="BC3" s="41"/>
+      <c r="BD3" s="41"/>
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="41"/>
+      <c r="BG3" s="65"/>
+      <c r="BH3" s="41"/>
+      <c r="BI3" s="41"/>
+      <c r="BJ3" s="41"/>
+      <c r="BK3" s="41"/>
+      <c r="BL3" s="41"/>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
@@ -2705,13 +2711,13 @@
         <f t="shared" ref="E4:E5" si="0">C4+D4-1</f>
         <v>43745</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="39">
         <v>1</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="31"/>
-      <c r="J4" s="79"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
     </row>
@@ -2729,10 +2735,10 @@
         <f t="shared" si="0"/>
         <v>43747</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="39">
         <v>1</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
@@ -2752,74 +2758,74 @@
         <f>C6+D6-1</f>
         <v>43745</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="39">
         <v>1</v>
       </c>
-      <c r="J6" s="80"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:64" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="55"/>
-      <c r="J7" s="81"/>
+      <c r="F7" s="39"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="35"/>
       <c r="L7" s="36"/>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="63"/>
-      <c r="J8" s="81"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="47"/>
+      <c r="J8" s="62"/>
       <c r="K8" s="35"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="78"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="78"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="64"/>
-      <c r="AY8" s="64"/>
-      <c r="AZ8" s="78"/>
-      <c r="BA8" s="64"/>
-      <c r="BB8" s="64"/>
-      <c r="BC8" s="64"/>
-      <c r="BD8" s="64"/>
-      <c r="BE8" s="64"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="48"/>
+      <c r="AU8" s="48"/>
+      <c r="AV8" s="48"/>
+      <c r="AW8" s="48"/>
+      <c r="AX8" s="48"/>
+      <c r="AY8" s="48"/>
+      <c r="AZ8" s="59"/>
+      <c r="BA8" s="48"/>
+      <c r="BB8" s="48"/>
+      <c r="BC8" s="48"/>
+      <c r="BD8" s="48"/>
+      <c r="BE8" s="48"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="s">
@@ -2835,7 +2841,7 @@
         <f>C9+D9-1</f>
         <v>43747</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="39">
         <v>1</v>
       </c>
       <c r="M9" s="31"/>
@@ -2851,44 +2857,44 @@
         <v>43749</v>
       </c>
       <c r="E10" s="27">
-        <f t="shared" ref="E10:E19" si="1">C10+D10-1</f>
+        <f t="shared" ref="E10" si="1">C10+D10-1</f>
         <v>43785</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="39">
         <v>1</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="32"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="85"/>
+      <c r="Q10" s="66"/>
       <c r="R10" s="30"/>
       <c r="S10" s="32"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
       <c r="V10" s="30"/>
       <c r="W10" s="30"/>
-      <c r="X10" s="85"/>
+      <c r="X10" s="66"/>
       <c r="Y10" s="30"/>
       <c r="Z10" s="30"/>
       <c r="AA10" s="30"/>
       <c r="AB10" s="30"/>
       <c r="AC10" s="30"/>
       <c r="AD10" s="30"/>
-      <c r="AE10" s="85"/>
+      <c r="AE10" s="66"/>
       <c r="AF10" s="30"/>
       <c r="AG10" s="30"/>
       <c r="AH10" s="30"/>
       <c r="AI10" s="30"/>
       <c r="AJ10" s="30"/>
       <c r="AK10" s="30"/>
-      <c r="AL10" s="85"/>
+      <c r="AL10" s="66"/>
       <c r="AM10" s="30"/>
       <c r="AN10" s="30"/>
       <c r="AO10" s="30"/>
       <c r="AP10" s="30"/>
       <c r="AQ10" s="30"/>
       <c r="AR10" s="30"/>
-      <c r="AS10" s="85"/>
+      <c r="AS10" s="66"/>
       <c r="AT10" s="30"/>
       <c r="AU10" s="30"/>
       <c r="AV10" s="30"/>
@@ -2910,7 +2916,7 @@
       <c r="E11" s="27">
         <v>43752</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="39">
         <v>1</v>
       </c>
       <c r="S11" s="31"/>
@@ -2929,42 +2935,42 @@
       <c r="E12" s="27">
         <v>43753</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="39">
         <v>1</v>
       </c>
       <c r="T12" s="31"/>
       <c r="U12" s="32"/>
       <c r="V12" s="32"/>
       <c r="W12" s="30"/>
-      <c r="X12" s="85"/>
+      <c r="X12" s="66"/>
       <c r="Y12" s="30"/>
       <c r="Z12" s="30"/>
       <c r="AA12" s="32"/>
       <c r="AB12" s="30"/>
       <c r="AC12" s="30"/>
       <c r="AD12" s="30"/>
-      <c r="AE12" s="85"/>
+      <c r="AE12" s="66"/>
       <c r="AF12" s="30"/>
       <c r="AG12" s="30"/>
       <c r="AH12" s="30"/>
       <c r="AI12" s="30"/>
       <c r="AJ12" s="30"/>
       <c r="AK12" s="30"/>
-      <c r="AL12" s="79"/>
+      <c r="AL12" s="60"/>
       <c r="AM12" s="30"/>
       <c r="AN12" s="30"/>
       <c r="AO12" s="30"/>
       <c r="AP12" s="30"/>
       <c r="AQ12" s="30"/>
       <c r="AR12" s="30"/>
-      <c r="AS12" s="79"/>
+      <c r="AS12" s="60"/>
       <c r="AT12" s="30"/>
       <c r="AU12" s="32"/>
       <c r="AV12" s="30"/>
       <c r="AW12" s="32"/>
       <c r="AX12" s="30"/>
       <c r="AY12" s="30"/>
-      <c r="AZ12" s="85"/>
+      <c r="AZ12" s="66"/>
       <c r="BA12" s="32"/>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
@@ -2981,25 +2987,25 @@
       <c r="E13" s="27">
         <v>43787</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="39">
         <v>1</v>
       </c>
       <c r="AK13" s="31"/>
-      <c r="AL13" s="79"/>
+      <c r="AL13" s="60"/>
       <c r="AM13" s="30"/>
       <c r="AN13" s="30"/>
       <c r="AO13" s="30"/>
       <c r="AP13" s="30"/>
       <c r="AQ13" s="30"/>
       <c r="AR13" s="30"/>
-      <c r="AS13" s="85"/>
+      <c r="AS13" s="66"/>
       <c r="AT13" s="30"/>
       <c r="AU13" s="30"/>
       <c r="AV13" s="30"/>
       <c r="AW13" s="30"/>
       <c r="AX13" s="32"/>
       <c r="AY13" s="32"/>
-      <c r="AZ13" s="85"/>
+      <c r="AZ13" s="66"/>
       <c r="BA13" s="30"/>
       <c r="BB13" s="32"/>
     </row>
@@ -3017,48 +3023,48 @@
       <c r="E14" s="27">
         <v>43788</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="39">
         <v>1</v>
       </c>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="83"/>
+      <c r="J14" s="64"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
-      <c r="Q14" s="83"/>
+      <c r="Q14" s="64"/>
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
       <c r="V14" s="35"/>
       <c r="W14" s="36"/>
-      <c r="X14" s="83"/>
+      <c r="X14" s="64"/>
       <c r="Y14" s="36"/>
       <c r="Z14" s="36"/>
       <c r="AA14" s="35"/>
       <c r="AB14" s="36"/>
       <c r="AC14" s="36"/>
       <c r="AD14" s="36"/>
-      <c r="AE14" s="83"/>
+      <c r="AE14" s="64"/>
       <c r="AF14" s="36"/>
       <c r="AG14" s="36"/>
       <c r="AH14" s="36"/>
       <c r="AI14" s="36"/>
       <c r="AJ14" s="36"/>
       <c r="AK14" s="36"/>
-      <c r="AL14" s="81"/>
+      <c r="AL14" s="62"/>
       <c r="AM14" s="36"/>
       <c r="AN14" s="36"/>
       <c r="AO14" s="36"/>
       <c r="AP14" s="36"/>
       <c r="AQ14" s="36"/>
       <c r="AR14" s="36"/>
-      <c r="AS14" s="81"/>
+      <c r="AS14" s="62"/>
       <c r="AT14" s="31"/>
       <c r="AU14" s="30"/>
       <c r="AV14" s="30"/>
@@ -3080,7 +3086,7 @@
       <c r="E15" s="27">
         <v>43785</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="39">
         <v>1</v>
       </c>
       <c r="AU15" s="31"/>
@@ -3088,7 +3094,7 @@
       <c r="AW15" s="30"/>
       <c r="AX15" s="30"/>
       <c r="AY15" s="32"/>
-      <c r="AZ15" s="85"/>
+      <c r="AZ15" s="66"/>
       <c r="BA15" s="32"/>
       <c r="BB15" s="30"/>
       <c r="BC15" s="32"/>
@@ -3107,13 +3113,13 @@
       <c r="E16" s="27">
         <v>43790</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="39">
         <v>1</v>
       </c>
       <c r="AW16" s="31"/>
       <c r="AX16" s="32"/>
       <c r="AY16" s="32"/>
-      <c r="AZ16" s="79"/>
+      <c r="AZ16" s="60"/>
       <c r="BA16" s="32"/>
       <c r="BB16" s="30"/>
       <c r="BC16" s="30"/>
@@ -3133,12 +3139,12 @@
       <c r="E17" s="27">
         <v>43786</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="39">
         <v>1</v>
       </c>
       <c r="AX17" s="31"/>
       <c r="AY17" s="30"/>
-      <c r="AZ17" s="79"/>
+      <c r="AZ17" s="60"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
@@ -3154,12 +3160,12 @@
       <c r="E18" s="27">
         <v>43788</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="39">
         <v>1</v>
       </c>
       <c r="AX18" s="31"/>
       <c r="AY18" s="30"/>
-      <c r="AZ18" s="79"/>
+      <c r="AZ18" s="60"/>
       <c r="BA18" s="32"/>
       <c r="BB18" s="32"/>
     </row>
@@ -3177,7 +3183,7 @@
       <c r="E19" s="27">
         <v>43791</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="39">
         <v>1</v>
       </c>
       <c r="BD19" s="31"/>
@@ -3185,121 +3191,121 @@
     </row>
     <row r="20" spans="1:62" s="35" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="83"/>
+      <c r="J20" s="64"/>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
-      <c r="Q20" s="83"/>
+      <c r="Q20" s="64"/>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
       <c r="T20" s="36"/>
       <c r="U20" s="36"/>
       <c r="V20" s="36"/>
       <c r="W20" s="36"/>
-      <c r="X20" s="83"/>
+      <c r="X20" s="64"/>
       <c r="Y20" s="36"/>
       <c r="Z20" s="36"/>
       <c r="AA20" s="36"/>
       <c r="AB20" s="36"/>
       <c r="AC20" s="36"/>
       <c r="AD20" s="36"/>
-      <c r="AE20" s="83"/>
+      <c r="AE20" s="64"/>
       <c r="AF20" s="36"/>
       <c r="AG20" s="36"/>
       <c r="AH20" s="36"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="36"/>
       <c r="AK20" s="36"/>
-      <c r="AL20" s="83"/>
+      <c r="AL20" s="64"/>
       <c r="AM20" s="36"/>
       <c r="AN20" s="36"/>
       <c r="AO20" s="36"/>
       <c r="AP20" s="36"/>
       <c r="AQ20" s="36"/>
       <c r="AR20" s="36"/>
-      <c r="AS20" s="83"/>
+      <c r="AS20" s="64"/>
       <c r="AT20" s="36"/>
       <c r="AU20" s="36"/>
       <c r="AV20" s="36"/>
       <c r="AW20" s="36"/>
       <c r="AX20" s="36"/>
       <c r="AY20" s="36"/>
-      <c r="AZ20" s="83"/>
+      <c r="AZ20" s="64"/>
       <c r="BA20" s="36"/>
       <c r="BB20" s="36"/>
       <c r="BC20" s="36"/>
       <c r="BF20" s="36"/>
-      <c r="BG20" s="81"/>
+      <c r="BG20" s="62"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="63"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="83"/>
+      <c r="J21" s="64"/>
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
       <c r="M21" s="36"/>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
-      <c r="Q21" s="83"/>
+      <c r="Q21" s="64"/>
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
       <c r="W21" s="36"/>
-      <c r="X21" s="83"/>
+      <c r="X21" s="64"/>
       <c r="Y21" s="36"/>
       <c r="Z21" s="36"/>
       <c r="AA21" s="35"/>
       <c r="AB21" s="36"/>
       <c r="AC21" s="36"/>
       <c r="AD21" s="36"/>
-      <c r="AE21" s="83"/>
+      <c r="AE21" s="64"/>
       <c r="AF21" s="36"/>
       <c r="AG21" s="36"/>
       <c r="AH21" s="36"/>
       <c r="AI21" s="36"/>
-      <c r="AJ21" s="64"/>
-      <c r="AK21" s="64"/>
-      <c r="AL21" s="78"/>
-      <c r="AM21" s="64"/>
-      <c r="AN21" s="64"/>
-      <c r="AO21" s="64"/>
-      <c r="AP21" s="64"/>
-      <c r="AQ21" s="64"/>
-      <c r="AR21" s="64"/>
-      <c r="AS21" s="78"/>
-      <c r="AT21" s="64"/>
-      <c r="AU21" s="64"/>
-      <c r="AV21" s="64"/>
-      <c r="AW21" s="64"/>
-      <c r="AX21" s="64"/>
-      <c r="AY21" s="64"/>
-      <c r="AZ21" s="78"/>
-      <c r="BA21" s="64"/>
-      <c r="BB21" s="64"/>
-      <c r="BC21" s="64"/>
-      <c r="BD21" s="64"/>
-      <c r="BE21" s="64"/>
-      <c r="BF21" s="64"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="59"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="48"/>
+      <c r="AZ21" s="59"/>
+      <c r="BA21" s="48"/>
+      <c r="BB21" s="48"/>
+      <c r="BC21" s="48"/>
+      <c r="BD21" s="48"/>
+      <c r="BE21" s="48"/>
+      <c r="BF21" s="48"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
@@ -3315,7 +3321,7 @@
       <c r="E22" s="27">
         <v>43770</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="39">
         <v>1</v>
       </c>
       <c r="AJ22" s="31"/>
@@ -3334,25 +3340,25 @@
       <c r="E23" s="27">
         <v>43786</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="39">
         <v>1</v>
       </c>
       <c r="AK23" s="31"/>
-      <c r="AL23" s="79"/>
+      <c r="AL23" s="60"/>
       <c r="AM23" s="30"/>
       <c r="AN23" s="30"/>
       <c r="AO23" s="30"/>
       <c r="AP23" s="30"/>
       <c r="AQ23" s="30"/>
       <c r="AR23" s="30"/>
-      <c r="AS23" s="85"/>
+      <c r="AS23" s="66"/>
       <c r="AT23" s="30"/>
       <c r="AU23" s="30"/>
       <c r="AV23" s="30"/>
       <c r="AW23" s="30"/>
       <c r="AX23" s="30"/>
       <c r="AY23" s="30"/>
-      <c r="AZ23" s="79"/>
+      <c r="AZ23" s="60"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
@@ -3368,10 +3374,10 @@
       <c r="E24" s="27">
         <v>43780</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="39">
         <v>1</v>
       </c>
-      <c r="AS24" s="80"/>
+      <c r="AS24" s="61"/>
       <c r="AT24" s="32"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.25">
@@ -3388,7 +3394,7 @@
       <c r="E25" s="27">
         <v>43784</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="39">
         <v>1</v>
       </c>
       <c r="AT25" s="31"/>
@@ -3411,7 +3417,7 @@
       <c r="E26" s="27">
         <v>43780</v>
       </c>
-      <c r="F26" s="55">
+      <c r="F26" s="39">
         <v>1</v>
       </c>
       <c r="AT26" s="31"/>
@@ -3430,13 +3436,13 @@
       <c r="E27" s="27">
         <v>43786</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="39">
         <v>1</v>
       </c>
       <c r="AW27" s="31"/>
       <c r="AX27" s="30"/>
       <c r="AY27" s="30"/>
-      <c r="AZ27" s="79"/>
+      <c r="AZ27" s="60"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B28" s="33" t="s">
@@ -3452,7 +3458,7 @@
       <c r="E28" s="27">
         <v>43784</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="39">
         <v>1</v>
       </c>
       <c r="AX28" s="31"/>
@@ -3471,11 +3477,11 @@
       <c r="E29" s="27">
         <v>43792</v>
       </c>
-      <c r="F29" s="55">
+      <c r="F29" s="39">
         <v>1</v>
       </c>
       <c r="AY29" s="31"/>
-      <c r="AZ29" s="79"/>
+      <c r="AZ29" s="60"/>
       <c r="BA29" s="32"/>
       <c r="BB29" s="32"/>
       <c r="BC29" s="32"/>
@@ -3497,278 +3503,284 @@
       <c r="E30" s="27">
         <v>43789</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="39">
         <v>1</v>
       </c>
       <c r="BC30" s="31"/>
     </row>
     <row r="31" spans="1:62" s="35" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
-      <c r="J31" s="83"/>
+      <c r="J31" s="64"/>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
-      <c r="Q31" s="83"/>
+      <c r="Q31" s="64"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
       <c r="V31" s="36"/>
       <c r="W31" s="36"/>
-      <c r="X31" s="83"/>
+      <c r="X31" s="64"/>
       <c r="Y31" s="36"/>
       <c r="Z31" s="36"/>
       <c r="AA31" s="36"/>
       <c r="AB31" s="36"/>
       <c r="AC31" s="36"/>
       <c r="AD31" s="36"/>
-      <c r="AE31" s="83"/>
+      <c r="AE31" s="64"/>
       <c r="AF31" s="36"/>
       <c r="AG31" s="36"/>
       <c r="AH31" s="36"/>
       <c r="AI31" s="36"/>
       <c r="AJ31" s="36"/>
       <c r="AK31" s="36"/>
-      <c r="AL31" s="83"/>
+      <c r="AL31" s="64"/>
       <c r="AM31" s="36"/>
       <c r="AN31" s="36"/>
       <c r="AO31" s="36"/>
       <c r="AP31" s="36"/>
       <c r="AQ31" s="36"/>
       <c r="AR31" s="36"/>
-      <c r="AS31" s="83"/>
+      <c r="AS31" s="64"/>
       <c r="AT31" s="36"/>
       <c r="AU31" s="36"/>
       <c r="AV31" s="36"/>
       <c r="AW31" s="36"/>
       <c r="AX31" s="36"/>
       <c r="AY31" s="36"/>
-      <c r="AZ31" s="83"/>
+      <c r="AZ31" s="64"/>
       <c r="BA31" s="36"/>
       <c r="BB31" s="36"/>
       <c r="BD31" s="36"/>
       <c r="BE31" s="36"/>
       <c r="BF31" s="36"/>
-      <c r="BG31" s="81"/>
+      <c r="BG31" s="62"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="74"/>
-      <c r="BE32" s="64"/>
-      <c r="BF32" s="64"/>
-      <c r="BG32" s="78"/>
-      <c r="BH32" s="64"/>
-      <c r="BI32" s="64"/>
-      <c r="BJ32" s="64"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="57"/>
+      <c r="BE32" s="48"/>
+      <c r="BF32" s="48"/>
+      <c r="BG32" s="59"/>
+      <c r="BH32" s="48"/>
+      <c r="BI32" s="48"/>
+      <c r="BJ32" s="48"/>
     </row>
     <row r="33" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B33" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="27">
         <v>43791</v>
       </c>
       <c r="E33" s="27">
-        <f>C33+D33</f>
-        <v>43796</v>
-      </c>
-      <c r="F33" s="55">
+        <v>43794</v>
+      </c>
+      <c r="F33" s="39">
         <v>1</v>
       </c>
-      <c r="BE33" s="75"/>
+      <c r="BE33" s="58"/>
       <c r="BF33" s="29"/>
-      <c r="BG33" s="79"/>
-      <c r="BH33" s="30"/>
-      <c r="BI33" s="30"/>
-      <c r="BJ33" s="30"/>
+      <c r="BG33" s="60"/>
+      <c r="BH33" s="32"/>
+      <c r="BI33" s="35"/>
+      <c r="BJ33" s="35"/>
     </row>
     <row r="34" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="89"/>
-      <c r="AB34" s="89"/>
-      <c r="AC34" s="89"/>
-      <c r="AD34" s="89"/>
-      <c r="AE34" s="89"/>
-      <c r="AF34" s="89"/>
-      <c r="AG34" s="89"/>
-      <c r="AH34" s="89"/>
-      <c r="AI34" s="89"/>
-      <c r="AJ34" s="89"/>
-      <c r="AK34" s="89"/>
-      <c r="AL34" s="89"/>
-      <c r="AM34" s="89"/>
-      <c r="AN34" s="89"/>
-      <c r="AO34" s="89"/>
-      <c r="AP34" s="89"/>
-      <c r="AQ34" s="89"/>
-      <c r="AR34" s="89"/>
-      <c r="AS34" s="89"/>
-      <c r="AT34" s="89"/>
-      <c r="AU34" s="89"/>
-      <c r="AV34" s="89"/>
-      <c r="AW34" s="89"/>
-      <c r="AX34" s="89"/>
-      <c r="AY34" s="89"/>
-      <c r="AZ34" s="89"/>
-      <c r="BA34" s="89"/>
-      <c r="BB34" s="89"/>
-      <c r="BC34" s="89"/>
-      <c r="BD34" s="89"/>
-      <c r="BE34" s="89"/>
-      <c r="BF34" s="89"/>
-      <c r="BG34" s="23"/>
+      <c r="B34" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="25">
+        <v>1</v>
+      </c>
+      <c r="D34" s="27">
+        <v>43795</v>
+      </c>
+      <c r="E34" s="27">
+        <v>43795</v>
+      </c>
+      <c r="F34" s="87">
+        <v>1</v>
+      </c>
+      <c r="I34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="68"/>
+      <c r="AI34" s="68"/>
+      <c r="AJ34" s="68"/>
+      <c r="AK34" s="68"/>
+      <c r="AM34" s="68"/>
+      <c r="AN34" s="68"/>
+      <c r="AO34" s="68"/>
+      <c r="AP34" s="68"/>
+      <c r="AQ34" s="68"/>
+      <c r="AR34" s="68"/>
+      <c r="AT34" s="68"/>
+      <c r="AU34" s="68"/>
+      <c r="AV34" s="68"/>
+      <c r="AW34" s="68"/>
+      <c r="AX34" s="68"/>
+      <c r="AY34" s="68"/>
+      <c r="BA34" s="68"/>
+      <c r="BB34" s="68"/>
+      <c r="BC34" s="68"/>
+      <c r="BD34" s="68"/>
+      <c r="BE34" s="68"/>
+      <c r="BF34" s="68"/>
       <c r="BH34" s="23"/>
       <c r="BI34" s="23"/>
-      <c r="BJ34" s="23"/>
+      <c r="BJ34" s="29"/>
     </row>
     <row r="35" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="G35" s="75"/>
-      <c r="H35" s="76" t="s">
+      <c r="G35" s="58"/>
+      <c r="H35" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
       <c r="L35" s="31"/>
-      <c r="M35" s="76" t="s">
+      <c r="M35" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="88" t="s">
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="S35" s="76"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="76"/>
-      <c r="V35" s="76"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
       <c r="W35" s="28"/>
-      <c r="X35" s="76" t="s">
+      <c r="X35" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="Y35" s="76"/>
-      <c r="Z35" s="76"/>
-      <c r="AA35" s="76"/>
-      <c r="AE35" s="89"/>
-      <c r="AF35" s="89"/>
-      <c r="AG35" s="89"/>
-      <c r="AH35" s="89"/>
-      <c r="AI35" s="89"/>
-      <c r="AJ35" s="89"/>
-      <c r="AK35" s="89"/>
-      <c r="AL35" s="89"/>
-      <c r="AM35" s="89"/>
-      <c r="AN35" s="89"/>
-      <c r="AO35" s="89"/>
-      <c r="AP35" s="89"/>
-      <c r="AQ35" s="89"/>
-      <c r="AR35" s="89"/>
-      <c r="AS35" s="89"/>
-      <c r="AT35" s="89"/>
-      <c r="AU35" s="89"/>
-      <c r="AV35" s="89"/>
-      <c r="AW35" s="89"/>
-      <c r="AX35" s="89"/>
-      <c r="AY35" s="89"/>
-      <c r="AZ35" s="89"/>
-      <c r="BA35" s="89"/>
-      <c r="BB35" s="89"/>
-      <c r="BC35" s="89"/>
-      <c r="BD35" s="89"/>
-      <c r="BE35" s="89"/>
-      <c r="BF35" s="89"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="85"/>
+      <c r="AE35" s="68"/>
+      <c r="AF35" s="68"/>
+      <c r="AG35" s="68"/>
+      <c r="AH35" s="68"/>
+      <c r="AI35" s="68"/>
+      <c r="AJ35" s="68"/>
+      <c r="AK35" s="68"/>
+      <c r="AL35" s="68"/>
+      <c r="AM35" s="68"/>
+      <c r="AN35" s="68"/>
+      <c r="AO35" s="68"/>
+      <c r="AP35" s="68"/>
+      <c r="AQ35" s="68"/>
+      <c r="AR35" s="68"/>
+      <c r="AS35" s="68"/>
+      <c r="AT35" s="68"/>
+      <c r="AU35" s="68"/>
+      <c r="AV35" s="68"/>
+      <c r="AW35" s="68"/>
+      <c r="AX35" s="68"/>
+      <c r="AY35" s="68"/>
+      <c r="AZ35" s="68"/>
+      <c r="BA35" s="68"/>
+      <c r="BB35" s="68"/>
+      <c r="BC35" s="68"/>
+      <c r="BD35" s="68"/>
+      <c r="BE35" s="68"/>
+      <c r="BF35" s="68"/>
       <c r="BG35" s="23"/>
       <c r="BH35" s="23"/>
     </row>
     <row r="36" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="89"/>
-      <c r="AA36" s="89"/>
-      <c r="AB36" s="89"/>
-      <c r="AC36" s="89"/>
-      <c r="AD36" s="89"/>
-      <c r="AE36" s="89"/>
-      <c r="AF36" s="89"/>
-      <c r="AG36" s="89"/>
-      <c r="AH36" s="89"/>
-      <c r="AI36" s="89"/>
-      <c r="AJ36" s="89"/>
-      <c r="AK36" s="89"/>
-      <c r="AL36" s="89"/>
-      <c r="AM36" s="89"/>
-      <c r="AN36" s="89"/>
-      <c r="AO36" s="89"/>
-      <c r="AP36" s="89"/>
-      <c r="AQ36" s="89"/>
-      <c r="AR36" s="89"/>
-      <c r="AS36" s="89"/>
-      <c r="AT36" s="89"/>
-      <c r="AU36" s="89"/>
-      <c r="AV36" s="89"/>
-      <c r="AW36" s="89"/>
-      <c r="AX36" s="89"/>
-      <c r="AY36" s="89"/>
-      <c r="AZ36" s="89"/>
-      <c r="BA36" s="89"/>
-      <c r="BB36" s="89"/>
-      <c r="BC36" s="89"/>
-      <c r="BD36" s="89"/>
-      <c r="BE36" s="89"/>
-      <c r="BF36" s="89"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="68"/>
+      <c r="AF36" s="68"/>
+      <c r="AG36" s="68"/>
+      <c r="AH36" s="68"/>
+      <c r="AI36" s="68"/>
+      <c r="AJ36" s="68"/>
+      <c r="AK36" s="68"/>
+      <c r="AL36" s="68"/>
+      <c r="AM36" s="68"/>
+      <c r="AN36" s="68"/>
+      <c r="AO36" s="68"/>
+      <c r="AP36" s="68"/>
+      <c r="AQ36" s="68"/>
+      <c r="AR36" s="68"/>
+      <c r="AS36" s="68"/>
+      <c r="AT36" s="68"/>
+      <c r="AU36" s="68"/>
+      <c r="AV36" s="68"/>
+      <c r="AW36" s="68"/>
+      <c r="AX36" s="68"/>
+      <c r="AY36" s="68"/>
+      <c r="AZ36" s="68"/>
+      <c r="BA36" s="68"/>
+      <c r="BB36" s="68"/>
+      <c r="BC36" s="68"/>
+      <c r="BD36" s="68"/>
+      <c r="BE36" s="68"/>
+      <c r="BF36" s="68"/>
       <c r="BG36" s="23"/>
       <c r="BH36" s="23"/>
       <c r="BI36" s="23"/>
@@ -3776,58 +3788,58 @@
       <c r="BK36" s="23"/>
     </row>
     <row r="37" spans="2:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="89"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="89"/>
-      <c r="V37" s="89"/>
-      <c r="W37" s="89"/>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="89"/>
-      <c r="AA37" s="89"/>
-      <c r="AB37" s="89"/>
-      <c r="AC37" s="89"/>
-      <c r="AD37" s="89"/>
-      <c r="AE37" s="89"/>
-      <c r="AF37" s="89"/>
-      <c r="AG37" s="89"/>
-      <c r="AH37" s="89"/>
-      <c r="AI37" s="89"/>
-      <c r="AJ37" s="89"/>
-      <c r="AK37" s="89"/>
-      <c r="AL37" s="89"/>
-      <c r="AM37" s="89"/>
-      <c r="AN37" s="89"/>
-      <c r="AO37" s="89"/>
-      <c r="AP37" s="89"/>
-      <c r="AQ37" s="89"/>
-      <c r="AR37" s="89"/>
-      <c r="AS37" s="89"/>
-      <c r="AT37" s="89"/>
-      <c r="AU37" s="89"/>
-      <c r="AV37" s="89"/>
-      <c r="AW37" s="89"/>
-      <c r="AX37" s="89"/>
-      <c r="AY37" s="89"/>
-      <c r="AZ37" s="89"/>
-      <c r="BA37" s="89"/>
-      <c r="BB37" s="89"/>
-      <c r="BC37" s="89"/>
-      <c r="BD37" s="89"/>
-      <c r="BE37" s="89"/>
-      <c r="BF37" s="89"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="68"/>
+      <c r="AF37" s="68"/>
+      <c r="AG37" s="68"/>
+      <c r="AH37" s="68"/>
+      <c r="AI37" s="68"/>
+      <c r="AJ37" s="68"/>
+      <c r="AK37" s="68"/>
+      <c r="AL37" s="68"/>
+      <c r="AM37" s="68"/>
+      <c r="AN37" s="68"/>
+      <c r="AO37" s="68"/>
+      <c r="AP37" s="68"/>
+      <c r="AQ37" s="68"/>
+      <c r="AR37" s="68"/>
+      <c r="AS37" s="68"/>
+      <c r="AT37" s="68"/>
+      <c r="AU37" s="68"/>
+      <c r="AV37" s="68"/>
+      <c r="AW37" s="68"/>
+      <c r="AX37" s="68"/>
+      <c r="AY37" s="68"/>
+      <c r="AZ37" s="68"/>
+      <c r="BA37" s="68"/>
+      <c r="BB37" s="68"/>
+      <c r="BC37" s="68"/>
+      <c r="BD37" s="68"/>
+      <c r="BE37" s="68"/>
+      <c r="BF37" s="68"/>
       <c r="BG37" s="23"/>
       <c r="BH37" s="23"/>
       <c r="BI37" s="23"/>
@@ -3835,58 +3847,58 @@
       <c r="BK37" s="23"/>
     </row>
     <row r="38" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="89"/>
-      <c r="X38" s="89"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="89"/>
-      <c r="AB38" s="89"/>
-      <c r="AC38" s="89"/>
-      <c r="AD38" s="89"/>
-      <c r="AE38" s="89"/>
-      <c r="AF38" s="89"/>
-      <c r="AG38" s="89"/>
-      <c r="AH38" s="89"/>
-      <c r="AI38" s="89"/>
-      <c r="AJ38" s="89"/>
-      <c r="AK38" s="89"/>
-      <c r="AL38" s="89"/>
-      <c r="AM38" s="89"/>
-      <c r="AN38" s="89"/>
-      <c r="AO38" s="89"/>
-      <c r="AP38" s="89"/>
-      <c r="AQ38" s="89"/>
-      <c r="AR38" s="89"/>
-      <c r="AS38" s="89"/>
-      <c r="AT38" s="89"/>
-      <c r="AU38" s="89"/>
-      <c r="AV38" s="89"/>
-      <c r="AW38" s="89"/>
-      <c r="AX38" s="89"/>
-      <c r="AY38" s="89"/>
-      <c r="AZ38" s="89"/>
-      <c r="BA38" s="89"/>
-      <c r="BB38" s="89"/>
-      <c r="BC38" s="89"/>
-      <c r="BD38" s="89"/>
-      <c r="BE38" s="89"/>
-      <c r="BF38" s="89"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68"/>
+      <c r="AE38" s="68"/>
+      <c r="AF38" s="68"/>
+      <c r="AG38" s="68"/>
+      <c r="AH38" s="68"/>
+      <c r="AI38" s="68"/>
+      <c r="AJ38" s="68"/>
+      <c r="AK38" s="68"/>
+      <c r="AL38" s="68"/>
+      <c r="AM38" s="68"/>
+      <c r="AN38" s="68"/>
+      <c r="AO38" s="68"/>
+      <c r="AP38" s="68"/>
+      <c r="AQ38" s="68"/>
+      <c r="AR38" s="68"/>
+      <c r="AS38" s="68"/>
+      <c r="AT38" s="68"/>
+      <c r="AU38" s="68"/>
+      <c r="AV38" s="68"/>
+      <c r="AW38" s="68"/>
+      <c r="AX38" s="68"/>
+      <c r="AY38" s="68"/>
+      <c r="AZ38" s="68"/>
+      <c r="BA38" s="68"/>
+      <c r="BB38" s="68"/>
+      <c r="BC38" s="68"/>
+      <c r="BD38" s="68"/>
+      <c r="BE38" s="68"/>
+      <c r="BF38" s="68"/>
       <c r="BG38" s="23"/>
       <c r="BH38" s="23"/>
       <c r="BI38" s="23"/>
@@ -3894,58 +3906,58 @@
       <c r="BK38" s="23"/>
     </row>
     <row r="39" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
-      <c r="T39" s="89"/>
-      <c r="U39" s="89"/>
-      <c r="V39" s="89"/>
-      <c r="W39" s="89"/>
-      <c r="X39" s="89"/>
-      <c r="Y39" s="89"/>
-      <c r="Z39" s="89"/>
-      <c r="AA39" s="89"/>
-      <c r="AB39" s="89"/>
-      <c r="AC39" s="89"/>
-      <c r="AD39" s="89"/>
-      <c r="AE39" s="89"/>
-      <c r="AF39" s="89"/>
-      <c r="AG39" s="89"/>
-      <c r="AH39" s="89"/>
-      <c r="AI39" s="89"/>
-      <c r="AJ39" s="89"/>
-      <c r="AK39" s="89"/>
-      <c r="AL39" s="89"/>
-      <c r="AM39" s="89"/>
-      <c r="AN39" s="89"/>
-      <c r="AO39" s="89"/>
-      <c r="AP39" s="89"/>
-      <c r="AQ39" s="89"/>
-      <c r="AR39" s="89"/>
-      <c r="AS39" s="89"/>
-      <c r="AT39" s="89"/>
-      <c r="AU39" s="89"/>
-      <c r="AV39" s="89"/>
-      <c r="AW39" s="89"/>
-      <c r="AX39" s="89"/>
-      <c r="AY39" s="89"/>
-      <c r="AZ39" s="89"/>
-      <c r="BA39" s="89"/>
-      <c r="BB39" s="89"/>
-      <c r="BC39" s="89"/>
-      <c r="BD39" s="89"/>
-      <c r="BE39" s="89"/>
-      <c r="BF39" s="89"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="68"/>
+      <c r="AC39" s="68"/>
+      <c r="AD39" s="68"/>
+      <c r="AE39" s="68"/>
+      <c r="AF39" s="68"/>
+      <c r="AG39" s="68"/>
+      <c r="AH39" s="68"/>
+      <c r="AI39" s="68"/>
+      <c r="AJ39" s="68"/>
+      <c r="AK39" s="68"/>
+      <c r="AL39" s="68"/>
+      <c r="AM39" s="68"/>
+      <c r="AN39" s="68"/>
+      <c r="AO39" s="68"/>
+      <c r="AP39" s="68"/>
+      <c r="AQ39" s="68"/>
+      <c r="AR39" s="68"/>
+      <c r="AS39" s="68"/>
+      <c r="AT39" s="68"/>
+      <c r="AU39" s="68"/>
+      <c r="AV39" s="68"/>
+      <c r="AW39" s="68"/>
+      <c r="AX39" s="68"/>
+      <c r="AY39" s="68"/>
+      <c r="AZ39" s="68"/>
+      <c r="BA39" s="68"/>
+      <c r="BB39" s="68"/>
+      <c r="BC39" s="68"/>
+      <c r="BD39" s="68"/>
+      <c r="BE39" s="68"/>
+      <c r="BF39" s="68"/>
       <c r="BG39" s="23"/>
       <c r="BH39" s="23"/>
       <c r="BI39" s="23"/>
@@ -3953,58 +3965,58 @@
       <c r="BK39" s="23"/>
     </row>
     <row r="40" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="89"/>
-      <c r="S40" s="89"/>
-      <c r="T40" s="89"/>
-      <c r="U40" s="89"/>
-      <c r="V40" s="89"/>
-      <c r="W40" s="89"/>
-      <c r="X40" s="89"/>
-      <c r="Y40" s="89"/>
-      <c r="Z40" s="89"/>
-      <c r="AA40" s="89"/>
-      <c r="AB40" s="89"/>
-      <c r="AC40" s="89"/>
-      <c r="AD40" s="89"/>
-      <c r="AE40" s="89"/>
-      <c r="AF40" s="89"/>
-      <c r="AG40" s="89"/>
-      <c r="AH40" s="89"/>
-      <c r="AI40" s="89"/>
-      <c r="AJ40" s="89"/>
-      <c r="AK40" s="89"/>
-      <c r="AL40" s="89"/>
-      <c r="AM40" s="89"/>
-      <c r="AN40" s="89"/>
-      <c r="AO40" s="89"/>
-      <c r="AP40" s="89"/>
-      <c r="AQ40" s="89"/>
-      <c r="AR40" s="89"/>
-      <c r="AS40" s="89"/>
-      <c r="AT40" s="89"/>
-      <c r="AU40" s="89"/>
-      <c r="AV40" s="89"/>
-      <c r="AW40" s="89"/>
-      <c r="AX40" s="89"/>
-      <c r="AY40" s="89"/>
-      <c r="AZ40" s="89"/>
-      <c r="BA40" s="89"/>
-      <c r="BB40" s="89"/>
-      <c r="BC40" s="89"/>
-      <c r="BD40" s="89"/>
-      <c r="BE40" s="89"/>
-      <c r="BF40" s="89"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="68"/>
+      <c r="AJ40" s="68"/>
+      <c r="AK40" s="68"/>
+      <c r="AL40" s="68"/>
+      <c r="AM40" s="68"/>
+      <c r="AN40" s="68"/>
+      <c r="AO40" s="68"/>
+      <c r="AP40" s="68"/>
+      <c r="AQ40" s="68"/>
+      <c r="AR40" s="68"/>
+      <c r="AS40" s="68"/>
+      <c r="AT40" s="68"/>
+      <c r="AU40" s="68"/>
+      <c r="AV40" s="68"/>
+      <c r="AW40" s="68"/>
+      <c r="AX40" s="68"/>
+      <c r="AY40" s="68"/>
+      <c r="AZ40" s="68"/>
+      <c r="BA40" s="68"/>
+      <c r="BB40" s="68"/>
+      <c r="BC40" s="68"/>
+      <c r="BD40" s="68"/>
+      <c r="BE40" s="68"/>
+      <c r="BF40" s="68"/>
       <c r="BG40" s="23"/>
       <c r="BH40" s="23"/>
       <c r="BI40" s="23"/>
@@ -4012,58 +4024,58 @@
       <c r="BK40" s="23"/>
     </row>
     <row r="41" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="89"/>
-      <c r="T41" s="89"/>
-      <c r="U41" s="89"/>
-      <c r="V41" s="89"/>
-      <c r="W41" s="89"/>
-      <c r="X41" s="89"/>
-      <c r="Y41" s="89"/>
-      <c r="Z41" s="89"/>
-      <c r="AA41" s="89"/>
-      <c r="AB41" s="89"/>
-      <c r="AC41" s="89"/>
-      <c r="AD41" s="89"/>
-      <c r="AE41" s="89"/>
-      <c r="AF41" s="89"/>
-      <c r="AG41" s="89"/>
-      <c r="AH41" s="89"/>
-      <c r="AI41" s="89"/>
-      <c r="AJ41" s="89"/>
-      <c r="AK41" s="89"/>
-      <c r="AL41" s="89"/>
-      <c r="AM41" s="89"/>
-      <c r="AN41" s="89"/>
-      <c r="AO41" s="89"/>
-      <c r="AP41" s="89"/>
-      <c r="AQ41" s="89"/>
-      <c r="AR41" s="89"/>
-      <c r="AS41" s="89"/>
-      <c r="AT41" s="89"/>
-      <c r="AU41" s="89"/>
-      <c r="AV41" s="89"/>
-      <c r="AW41" s="89"/>
-      <c r="AX41" s="89"/>
-      <c r="AY41" s="89"/>
-      <c r="AZ41" s="89"/>
-      <c r="BA41" s="89"/>
-      <c r="BB41" s="89"/>
-      <c r="BC41" s="89"/>
-      <c r="BD41" s="89"/>
-      <c r="BE41" s="89"/>
-      <c r="BF41" s="89"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="68"/>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="68"/>
+      <c r="AG41" s="68"/>
+      <c r="AH41" s="68"/>
+      <c r="AI41" s="68"/>
+      <c r="AJ41" s="68"/>
+      <c r="AK41" s="68"/>
+      <c r="AL41" s="68"/>
+      <c r="AM41" s="68"/>
+      <c r="AN41" s="68"/>
+      <c r="AO41" s="68"/>
+      <c r="AP41" s="68"/>
+      <c r="AQ41" s="68"/>
+      <c r="AR41" s="68"/>
+      <c r="AS41" s="68"/>
+      <c r="AT41" s="68"/>
+      <c r="AU41" s="68"/>
+      <c r="AV41" s="68"/>
+      <c r="AW41" s="68"/>
+      <c r="AX41" s="68"/>
+      <c r="AY41" s="68"/>
+      <c r="AZ41" s="68"/>
+      <c r="BA41" s="68"/>
+      <c r="BB41" s="68"/>
+      <c r="BC41" s="68"/>
+      <c r="BD41" s="68"/>
+      <c r="BE41" s="68"/>
+      <c r="BF41" s="68"/>
       <c r="BG41" s="23"/>
       <c r="BH41" s="23"/>
       <c r="BI41" s="23"/>
@@ -4071,58 +4083,58 @@
       <c r="BK41" s="23"/>
     </row>
     <row r="42" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="89"/>
-      <c r="Q42" s="89"/>
-      <c r="R42" s="89"/>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
-      <c r="V42" s="89"/>
-      <c r="W42" s="89"/>
-      <c r="X42" s="89"/>
-      <c r="Y42" s="89"/>
-      <c r="Z42" s="89"/>
-      <c r="AA42" s="89"/>
-      <c r="AB42" s="89"/>
-      <c r="AC42" s="89"/>
-      <c r="AD42" s="89"/>
-      <c r="AE42" s="89"/>
-      <c r="AF42" s="89"/>
-      <c r="AG42" s="89"/>
-      <c r="AH42" s="89"/>
-      <c r="AI42" s="89"/>
-      <c r="AJ42" s="89"/>
-      <c r="AK42" s="89"/>
-      <c r="AL42" s="89"/>
-      <c r="AM42" s="89"/>
-      <c r="AN42" s="89"/>
-      <c r="AO42" s="89"/>
-      <c r="AP42" s="89"/>
-      <c r="AQ42" s="89"/>
-      <c r="AR42" s="89"/>
-      <c r="AS42" s="89"/>
-      <c r="AT42" s="89"/>
-      <c r="AU42" s="89"/>
-      <c r="AV42" s="89"/>
-      <c r="AW42" s="89"/>
-      <c r="AX42" s="89"/>
-      <c r="AY42" s="89"/>
-      <c r="AZ42" s="89"/>
-      <c r="BA42" s="89"/>
-      <c r="BB42" s="89"/>
-      <c r="BC42" s="89"/>
-      <c r="BD42" s="89"/>
-      <c r="BE42" s="89"/>
-      <c r="BF42" s="89"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="68"/>
+      <c r="AC42" s="68"/>
+      <c r="AD42" s="68"/>
+      <c r="AE42" s="68"/>
+      <c r="AF42" s="68"/>
+      <c r="AG42" s="68"/>
+      <c r="AH42" s="68"/>
+      <c r="AI42" s="68"/>
+      <c r="AJ42" s="68"/>
+      <c r="AK42" s="68"/>
+      <c r="AL42" s="68"/>
+      <c r="AM42" s="68"/>
+      <c r="AN42" s="68"/>
+      <c r="AO42" s="68"/>
+      <c r="AP42" s="68"/>
+      <c r="AQ42" s="68"/>
+      <c r="AR42" s="68"/>
+      <c r="AS42" s="68"/>
+      <c r="AT42" s="68"/>
+      <c r="AU42" s="68"/>
+      <c r="AV42" s="68"/>
+      <c r="AW42" s="68"/>
+      <c r="AX42" s="68"/>
+      <c r="AY42" s="68"/>
+      <c r="AZ42" s="68"/>
+      <c r="BA42" s="68"/>
+      <c r="BB42" s="68"/>
+      <c r="BC42" s="68"/>
+      <c r="BD42" s="68"/>
+      <c r="BE42" s="68"/>
+      <c r="BF42" s="68"/>
       <c r="BG42" s="23"/>
       <c r="BH42" s="23"/>
       <c r="BI42" s="23"/>
@@ -4130,58 +4142,58 @@
       <c r="BK42" s="23"/>
     </row>
     <row r="43" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="89"/>
-      <c r="R43" s="89"/>
-      <c r="S43" s="89"/>
-      <c r="T43" s="89"/>
-      <c r="U43" s="89"/>
-      <c r="V43" s="89"/>
-      <c r="W43" s="89"/>
-      <c r="X43" s="89"/>
-      <c r="Y43" s="89"/>
-      <c r="Z43" s="89"/>
-      <c r="AA43" s="89"/>
-      <c r="AB43" s="89"/>
-      <c r="AC43" s="89"/>
-      <c r="AD43" s="89"/>
-      <c r="AE43" s="89"/>
-      <c r="AF43" s="89"/>
-      <c r="AG43" s="89"/>
-      <c r="AH43" s="89"/>
-      <c r="AI43" s="89"/>
-      <c r="AJ43" s="89"/>
-      <c r="AK43" s="89"/>
-      <c r="AL43" s="89"/>
-      <c r="AM43" s="89"/>
-      <c r="AN43" s="89"/>
-      <c r="AO43" s="89"/>
-      <c r="AP43" s="89"/>
-      <c r="AQ43" s="89"/>
-      <c r="AR43" s="89"/>
-      <c r="AS43" s="89"/>
-      <c r="AT43" s="89"/>
-      <c r="AU43" s="89"/>
-      <c r="AV43" s="89"/>
-      <c r="AW43" s="89"/>
-      <c r="AX43" s="89"/>
-      <c r="AY43" s="89"/>
-      <c r="AZ43" s="89"/>
-      <c r="BA43" s="89"/>
-      <c r="BB43" s="89"/>
-      <c r="BC43" s="89"/>
-      <c r="BD43" s="89"/>
-      <c r="BE43" s="89"/>
-      <c r="BF43" s="89"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="68"/>
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="68"/>
+      <c r="AF43" s="68"/>
+      <c r="AG43" s="68"/>
+      <c r="AH43" s="68"/>
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="68"/>
+      <c r="AK43" s="68"/>
+      <c r="AL43" s="68"/>
+      <c r="AM43" s="68"/>
+      <c r="AN43" s="68"/>
+      <c r="AO43" s="68"/>
+      <c r="AP43" s="68"/>
+      <c r="AQ43" s="68"/>
+      <c r="AR43" s="68"/>
+      <c r="AS43" s="68"/>
+      <c r="AT43" s="68"/>
+      <c r="AU43" s="68"/>
+      <c r="AV43" s="68"/>
+      <c r="AW43" s="68"/>
+      <c r="AX43" s="68"/>
+      <c r="AY43" s="68"/>
+      <c r="AZ43" s="68"/>
+      <c r="BA43" s="68"/>
+      <c r="BB43" s="68"/>
+      <c r="BC43" s="68"/>
+      <c r="BD43" s="68"/>
+      <c r="BE43" s="68"/>
+      <c r="BF43" s="68"/>
       <c r="BG43" s="23"/>
       <c r="BH43" s="23"/>
       <c r="BI43" s="23"/>
@@ -4189,58 +4201,58 @@
       <c r="BK43" s="23"/>
     </row>
     <row r="44" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="89"/>
-      <c r="T44" s="89"/>
-      <c r="U44" s="89"/>
-      <c r="V44" s="89"/>
-      <c r="W44" s="89"/>
-      <c r="X44" s="89"/>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="89"/>
-      <c r="AA44" s="89"/>
-      <c r="AB44" s="89"/>
-      <c r="AC44" s="89"/>
-      <c r="AD44" s="89"/>
-      <c r="AE44" s="89"/>
-      <c r="AF44" s="89"/>
-      <c r="AG44" s="89"/>
-      <c r="AH44" s="89"/>
-      <c r="AI44" s="89"/>
-      <c r="AJ44" s="89"/>
-      <c r="AK44" s="89"/>
-      <c r="AL44" s="89"/>
-      <c r="AM44" s="89"/>
-      <c r="AN44" s="89"/>
-      <c r="AO44" s="89"/>
-      <c r="AP44" s="89"/>
-      <c r="AQ44" s="89"/>
-      <c r="AR44" s="89"/>
-      <c r="AS44" s="89"/>
-      <c r="AT44" s="89"/>
-      <c r="AU44" s="89"/>
-      <c r="AV44" s="89"/>
-      <c r="AW44" s="89"/>
-      <c r="AX44" s="89"/>
-      <c r="AY44" s="89"/>
-      <c r="AZ44" s="89"/>
-      <c r="BA44" s="89"/>
-      <c r="BB44" s="89"/>
-      <c r="BC44" s="89"/>
-      <c r="BD44" s="89"/>
-      <c r="BE44" s="89"/>
-      <c r="BF44" s="89"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="68"/>
+      <c r="AC44" s="68"/>
+      <c r="AD44" s="68"/>
+      <c r="AE44" s="68"/>
+      <c r="AF44" s="68"/>
+      <c r="AG44" s="68"/>
+      <c r="AH44" s="68"/>
+      <c r="AI44" s="68"/>
+      <c r="AJ44" s="68"/>
+      <c r="AK44" s="68"/>
+      <c r="AL44" s="68"/>
+      <c r="AM44" s="68"/>
+      <c r="AN44" s="68"/>
+      <c r="AO44" s="68"/>
+      <c r="AP44" s="68"/>
+      <c r="AQ44" s="68"/>
+      <c r="AR44" s="68"/>
+      <c r="AS44" s="68"/>
+      <c r="AT44" s="68"/>
+      <c r="AU44" s="68"/>
+      <c r="AV44" s="68"/>
+      <c r="AW44" s="68"/>
+      <c r="AX44" s="68"/>
+      <c r="AY44" s="68"/>
+      <c r="AZ44" s="68"/>
+      <c r="BA44" s="68"/>
+      <c r="BB44" s="68"/>
+      <c r="BC44" s="68"/>
+      <c r="BD44" s="68"/>
+      <c r="BE44" s="68"/>
+      <c r="BF44" s="68"/>
       <c r="BG44" s="23"/>
       <c r="BH44" s="23"/>
       <c r="BI44" s="23"/>
@@ -4248,58 +4260,58 @@
       <c r="BK44" s="23"/>
     </row>
     <row r="45" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="89"/>
-      <c r="R45" s="89"/>
-      <c r="S45" s="89"/>
-      <c r="T45" s="89"/>
-      <c r="U45" s="89"/>
-      <c r="V45" s="89"/>
-      <c r="W45" s="89"/>
-      <c r="X45" s="89"/>
-      <c r="Y45" s="89"/>
-      <c r="Z45" s="89"/>
-      <c r="AA45" s="89"/>
-      <c r="AB45" s="89"/>
-      <c r="AC45" s="89"/>
-      <c r="AD45" s="89"/>
-      <c r="AE45" s="89"/>
-      <c r="AF45" s="89"/>
-      <c r="AG45" s="89"/>
-      <c r="AH45" s="89"/>
-      <c r="AI45" s="89"/>
-      <c r="AJ45" s="89"/>
-      <c r="AK45" s="89"/>
-      <c r="AL45" s="89"/>
-      <c r="AM45" s="89"/>
-      <c r="AN45" s="89"/>
-      <c r="AO45" s="89"/>
-      <c r="AP45" s="89"/>
-      <c r="AQ45" s="89"/>
-      <c r="AR45" s="89"/>
-      <c r="AS45" s="89"/>
-      <c r="AT45" s="89"/>
-      <c r="AU45" s="89"/>
-      <c r="AV45" s="89"/>
-      <c r="AW45" s="89"/>
-      <c r="AX45" s="89"/>
-      <c r="AY45" s="89"/>
-      <c r="AZ45" s="89"/>
-      <c r="BA45" s="89"/>
-      <c r="BB45" s="89"/>
-      <c r="BC45" s="89"/>
-      <c r="BD45" s="89"/>
-      <c r="BE45" s="89"/>
-      <c r="BF45" s="89"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="68"/>
+      <c r="AC45" s="68"/>
+      <c r="AD45" s="68"/>
+      <c r="AE45" s="68"/>
+      <c r="AF45" s="68"/>
+      <c r="AG45" s="68"/>
+      <c r="AH45" s="68"/>
+      <c r="AI45" s="68"/>
+      <c r="AJ45" s="68"/>
+      <c r="AK45" s="68"/>
+      <c r="AL45" s="68"/>
+      <c r="AM45" s="68"/>
+      <c r="AN45" s="68"/>
+      <c r="AO45" s="68"/>
+      <c r="AP45" s="68"/>
+      <c r="AQ45" s="68"/>
+      <c r="AR45" s="68"/>
+      <c r="AS45" s="68"/>
+      <c r="AT45" s="68"/>
+      <c r="AU45" s="68"/>
+      <c r="AV45" s="68"/>
+      <c r="AW45" s="68"/>
+      <c r="AX45" s="68"/>
+      <c r="AY45" s="68"/>
+      <c r="AZ45" s="68"/>
+      <c r="BA45" s="68"/>
+      <c r="BB45" s="68"/>
+      <c r="BC45" s="68"/>
+      <c r="BD45" s="68"/>
+      <c r="BE45" s="68"/>
+      <c r="BF45" s="68"/>
       <c r="BG45" s="23"/>
       <c r="BH45" s="23"/>
       <c r="BI45" s="23"/>
@@ -4307,58 +4319,58 @@
       <c r="BK45" s="23"/>
     </row>
     <row r="46" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="89"/>
-      <c r="Q46" s="89"/>
-      <c r="R46" s="89"/>
-      <c r="S46" s="89"/>
-      <c r="T46" s="89"/>
-      <c r="U46" s="89"/>
-      <c r="V46" s="89"/>
-      <c r="W46" s="89"/>
-      <c r="X46" s="89"/>
-      <c r="Y46" s="89"/>
-      <c r="Z46" s="89"/>
-      <c r="AA46" s="89"/>
-      <c r="AB46" s="89"/>
-      <c r="AC46" s="89"/>
-      <c r="AD46" s="89"/>
-      <c r="AE46" s="89"/>
-      <c r="AF46" s="89"/>
-      <c r="AG46" s="89"/>
-      <c r="AH46" s="89"/>
-      <c r="AI46" s="89"/>
-      <c r="AJ46" s="89"/>
-      <c r="AK46" s="89"/>
-      <c r="AL46" s="89"/>
-      <c r="AM46" s="89"/>
-      <c r="AN46" s="89"/>
-      <c r="AO46" s="89"/>
-      <c r="AP46" s="89"/>
-      <c r="AQ46" s="89"/>
-      <c r="AR46" s="89"/>
-      <c r="AS46" s="89"/>
-      <c r="AT46" s="89"/>
-      <c r="AU46" s="89"/>
-      <c r="AV46" s="89"/>
-      <c r="AW46" s="89"/>
-      <c r="AX46" s="89"/>
-      <c r="AY46" s="89"/>
-      <c r="AZ46" s="89"/>
-      <c r="BA46" s="89"/>
-      <c r="BB46" s="89"/>
-      <c r="BC46" s="89"/>
-      <c r="BD46" s="89"/>
-      <c r="BE46" s="89"/>
-      <c r="BF46" s="89"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="68"/>
+      <c r="AC46" s="68"/>
+      <c r="AD46" s="68"/>
+      <c r="AE46" s="68"/>
+      <c r="AF46" s="68"/>
+      <c r="AG46" s="68"/>
+      <c r="AH46" s="68"/>
+      <c r="AI46" s="68"/>
+      <c r="AJ46" s="68"/>
+      <c r="AK46" s="68"/>
+      <c r="AL46" s="68"/>
+      <c r="AM46" s="68"/>
+      <c r="AN46" s="68"/>
+      <c r="AO46" s="68"/>
+      <c r="AP46" s="68"/>
+      <c r="AQ46" s="68"/>
+      <c r="AR46" s="68"/>
+      <c r="AS46" s="68"/>
+      <c r="AT46" s="68"/>
+      <c r="AU46" s="68"/>
+      <c r="AV46" s="68"/>
+      <c r="AW46" s="68"/>
+      <c r="AX46" s="68"/>
+      <c r="AY46" s="68"/>
+      <c r="AZ46" s="68"/>
+      <c r="BA46" s="68"/>
+      <c r="BB46" s="68"/>
+      <c r="BC46" s="68"/>
+      <c r="BD46" s="68"/>
+      <c r="BE46" s="68"/>
+      <c r="BF46" s="68"/>
       <c r="BG46" s="23"/>
       <c r="BH46" s="23"/>
       <c r="BI46" s="23"/>
@@ -4366,58 +4378,58 @@
       <c r="BK46" s="23"/>
     </row>
     <row r="47" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="89"/>
-      <c r="Q47" s="89"/>
-      <c r="R47" s="89"/>
-      <c r="S47" s="89"/>
-      <c r="T47" s="89"/>
-      <c r="U47" s="89"/>
-      <c r="V47" s="89"/>
-      <c r="W47" s="89"/>
-      <c r="X47" s="89"/>
-      <c r="Y47" s="89"/>
-      <c r="Z47" s="89"/>
-      <c r="AA47" s="89"/>
-      <c r="AB47" s="89"/>
-      <c r="AC47" s="89"/>
-      <c r="AD47" s="89"/>
-      <c r="AE47" s="89"/>
-      <c r="AF47" s="89"/>
-      <c r="AG47" s="89"/>
-      <c r="AH47" s="89"/>
-      <c r="AI47" s="89"/>
-      <c r="AJ47" s="89"/>
-      <c r="AK47" s="89"/>
-      <c r="AL47" s="89"/>
-      <c r="AM47" s="89"/>
-      <c r="AN47" s="89"/>
-      <c r="AO47" s="89"/>
-      <c r="AP47" s="89"/>
-      <c r="AQ47" s="89"/>
-      <c r="AR47" s="89"/>
-      <c r="AS47" s="89"/>
-      <c r="AT47" s="89"/>
-      <c r="AU47" s="89"/>
-      <c r="AV47" s="89"/>
-      <c r="AW47" s="89"/>
-      <c r="AX47" s="89"/>
-      <c r="AY47" s="89"/>
-      <c r="AZ47" s="89"/>
-      <c r="BA47" s="89"/>
-      <c r="BB47" s="89"/>
-      <c r="BC47" s="89"/>
-      <c r="BD47" s="89"/>
-      <c r="BE47" s="89"/>
-      <c r="BF47" s="89"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="68"/>
+      <c r="AC47" s="68"/>
+      <c r="AD47" s="68"/>
+      <c r="AE47" s="68"/>
+      <c r="AF47" s="68"/>
+      <c r="AG47" s="68"/>
+      <c r="AH47" s="68"/>
+      <c r="AI47" s="68"/>
+      <c r="AJ47" s="68"/>
+      <c r="AK47" s="68"/>
+      <c r="AL47" s="68"/>
+      <c r="AM47" s="68"/>
+      <c r="AN47" s="68"/>
+      <c r="AO47" s="68"/>
+      <c r="AP47" s="68"/>
+      <c r="AQ47" s="68"/>
+      <c r="AR47" s="68"/>
+      <c r="AS47" s="68"/>
+      <c r="AT47" s="68"/>
+      <c r="AU47" s="68"/>
+      <c r="AV47" s="68"/>
+      <c r="AW47" s="68"/>
+      <c r="AX47" s="68"/>
+      <c r="AY47" s="68"/>
+      <c r="AZ47" s="68"/>
+      <c r="BA47" s="68"/>
+      <c r="BB47" s="68"/>
+      <c r="BC47" s="68"/>
+      <c r="BD47" s="68"/>
+      <c r="BE47" s="68"/>
+      <c r="BF47" s="68"/>
       <c r="BG47" s="23"/>
       <c r="BH47" s="23"/>
       <c r="BI47" s="23"/>
